--- a/data7.xlsx
+++ b/data7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansa1\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180B1B7-A83D-4F21-B02A-BAC5A1E72EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB060ADB-4FEC-4342-AEFC-DEAFA0B6F8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -118,15 +118,6 @@
     <t xml:space="preserve">Main sources are two web sites: </t>
   </si>
   <si>
-    <t>6-month commercial paper, averaged January and July, taken from Robert Shiller</t>
-  </si>
-  <si>
-    <t>Short-term risk-free returns</t>
-  </si>
-  <si>
-    <t>1-year Treasury constant maturity rate, taken from FRED series DGS1</t>
-  </si>
-  <si>
     <t>1871-1912</t>
   </si>
   <si>
@@ -160,10 +151,34 @@
     <t>CPI for all urban consumers: All items in US City Average, FRED series CPIAUCNS</t>
   </si>
   <si>
-    <t>1871-1961</t>
+    <t>1871-1997</t>
   </si>
   <si>
-    <t>1962-2024</t>
+    <t>Short-term risk-free returns, averaged January and July, monthly average</t>
+  </si>
+  <si>
+    <t>1998-2011</t>
+  </si>
+  <si>
+    <t>6-month certificates of deposit, non-jumbo deposits, FRED series CD6NRNJ</t>
+  </si>
+  <si>
+    <t>6-month certificates of deposit, FRED series DCD6M</t>
+  </si>
+  <si>
+    <t>6-month commercial paper, taken from Robert Shiller</t>
+  </si>
+  <si>
+    <t>National Deposit Rates: 6-Month CD, FRED series NDR6MCD</t>
+  </si>
+  <si>
+    <t>2012- Jan 2021</t>
+  </si>
+  <si>
+    <t>Jul 2021-2024</t>
+  </si>
+  <si>
+    <t>Collected Feb 26, 2024</t>
   </si>
 </sst>
 </file>
@@ -260,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -295,6 +310,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +623,8 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -615,7 +636,7 @@
     <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="15" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -642,7 +663,7 @@
       <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -668,7 +689,7 @@
       <c r="G2" s="9">
         <v>5.32</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="2">
         <v>6.35</v>
       </c>
     </row>
@@ -694,7 +715,7 @@
       <c r="G3" s="9">
         <v>5.36</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="2">
         <v>7.81</v>
       </c>
     </row>
@@ -720,7 +741,7 @@
       <c r="G4" s="9">
         <v>5.58</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="2">
         <v>8.35</v>
       </c>
     </row>
@@ -746,7 +767,7 @@
       <c r="G5" s="9">
         <v>5.47</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="2">
         <v>6.86</v>
       </c>
     </row>
@@ -772,7 +793,7 @@
       <c r="G6" s="9">
         <v>5.07</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="2">
         <v>4.96</v>
       </c>
     </row>
@@ -798,7 +819,7 @@
       <c r="G7" s="9">
         <v>4.59</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="2">
         <v>5.33</v>
       </c>
     </row>
@@ -824,7 +845,7 @@
       <c r="G8" s="9">
         <v>4.45</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="2">
         <v>5.03</v>
       </c>
     </row>
@@ -850,7 +871,7 @@
       <c r="G9" s="9">
         <v>4.34</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -876,7 +897,7 @@
       <c r="G10" s="9">
         <v>4.22</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="2">
         <v>4.25</v>
       </c>
     </row>
@@ -902,7 +923,7 @@
       <c r="G11" s="9">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="2">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -928,7 +949,7 @@
       <c r="G12" s="9">
         <v>3.7</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="2">
         <v>4.79</v>
       </c>
     </row>
@@ -954,7 +975,7 @@
       <c r="G13" s="9">
         <v>3.62</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="2">
         <v>5.26</v>
       </c>
     </row>
@@ -980,7 +1001,7 @@
       <c r="G14" s="9">
         <v>3.63</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="2">
         <v>5.35</v>
       </c>
     </row>
@@ -1006,7 +1027,7 @@
       <c r="G15" s="9">
         <v>3.62</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="2">
         <v>5.65</v>
       </c>
     </row>
@@ -1032,7 +1053,7 @@
       <c r="G16" s="9">
         <v>3.52</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="2">
         <v>4.22</v>
       </c>
     </row>
@@ -1058,7 +1079,7 @@
       <c r="G17" s="9">
         <v>3.37</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="2">
         <v>4.26</v>
       </c>
     </row>
@@ -1084,7 +1105,7 @@
       <c r="G18" s="9">
         <v>3.52</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="2">
         <v>6.11</v>
       </c>
     </row>
@@ -1110,7 +1131,7 @@
       <c r="G19" s="9">
         <v>3.67</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="2">
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -1136,7 +1157,7 @@
       <c r="G20" s="9">
         <v>3.45</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="2">
         <v>4.68</v>
       </c>
     </row>
@@ -1162,7 +1183,7 @@
       <c r="G21" s="9">
         <v>3.42</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="2">
         <v>5.41</v>
       </c>
     </row>
@@ -1188,7 +1209,7 @@
       <c r="G22" s="9">
         <v>3.62</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="2">
         <v>5.97</v>
       </c>
     </row>
@@ -1214,7 +1235,7 @@
       <c r="G23" s="9">
         <v>3.6</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="2">
         <v>3.93</v>
       </c>
     </row>
@@ -1240,7 +1261,7 @@
       <c r="G24" s="9">
         <v>3.75</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="2">
         <v>8.52</v>
       </c>
     </row>
@@ -1266,7 +1287,7 @@
       <c r="G25" s="9">
         <v>3.7</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="2">
         <v>3.32</v>
       </c>
     </row>
@@ -1292,7 +1313,7 @@
       <c r="G26" s="9">
         <v>3.46</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="2">
         <v>3.09</v>
       </c>
     </row>
@@ -1318,7 +1339,7 @@
       <c r="G27" s="9">
         <v>3.6</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="2">
         <v>5.76</v>
       </c>
     </row>
@@ -1344,7 +1365,7 @@
       <c r="G28" s="9">
         <v>3.4</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="2">
         <v>3.44</v>
       </c>
     </row>
@@ -1370,7 +1391,7 @@
       <c r="G29" s="9">
         <v>3.35</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="2">
         <v>3.55</v>
       </c>
     </row>
@@ -1396,7 +1417,7 @@
       <c r="G30" s="9">
         <v>3.1</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="2">
         <v>3.36</v>
       </c>
     </row>
@@ -1422,7 +1443,7 @@
       <c r="G31" s="9">
         <v>3.15</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="2">
         <v>4.6399999999999997</v>
       </c>
     </row>
@@ -1448,7 +1469,7 @@
       <c r="G32" s="9">
         <v>3.1</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="2">
         <v>4.3</v>
       </c>
     </row>
@@ -1474,7 +1495,7 @@
       <c r="G33" s="9">
         <v>3.18</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="2">
         <v>4.72</v>
       </c>
     </row>
@@ -1500,7 +1521,7 @@
       <c r="G34" s="9">
         <v>3.3</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="2">
         <v>5.5</v>
       </c>
     </row>
@@ -1526,7 +1547,7 @@
       <c r="G35" s="9">
         <v>3.4</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="2">
         <v>4.34</v>
       </c>
     </row>
@@ -1552,7 +1573,7 @@
       <c r="G36" s="9">
         <v>3.48</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="2">
         <v>4.17</v>
       </c>
     </row>
@@ -1578,7 +1599,7 @@
       <c r="G37" s="9">
         <v>3.43</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="2">
         <v>5.47</v>
       </c>
     </row>
@@ -1604,7 +1625,7 @@
       <c r="G38" s="9">
         <v>3.67</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="2">
         <v>6.23</v>
       </c>
     </row>
@@ -1630,7 +1651,7 @@
       <c r="G39" s="9">
         <v>3.87</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="2">
         <v>5.32</v>
       </c>
     </row>
@@ -1656,7 +1677,7 @@
       <c r="G40" s="9">
         <v>3.76</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="2">
         <v>3.65</v>
       </c>
     </row>
@@ -1682,7 +1703,7 @@
       <c r="G41" s="9">
         <v>3.91</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="2">
         <v>5.26</v>
       </c>
     </row>
@@ -1708,7 +1729,7 @@
       <c r="G42" s="9">
         <v>3.98</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1734,7 +1755,7 @@
       <c r="G43" s="9">
         <v>4.01</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="2">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -1760,7 +1781,7 @@
       <c r="G44" s="9">
         <v>4.45</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="2">
         <v>5.65</v>
       </c>
     </row>
@@ -1786,7 +1807,7 @@
       <c r="G45" s="9">
         <v>4.16</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="2">
         <v>4.6399999999999997</v>
       </c>
     </row>
@@ -1812,7 +1833,7 @@
       <c r="G46" s="9">
         <v>4.24</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="2">
         <v>3.65</v>
       </c>
     </row>
@@ -1838,7 +1859,7 @@
       <c r="G47" s="9">
         <v>4.05</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="2">
         <v>3.64</v>
       </c>
     </row>
@@ -1864,7 +1885,7 @@
       <c r="G48" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="2">
         <v>4.25</v>
       </c>
     </row>
@@ -1890,7 +1911,7 @@
       <c r="G49" s="9">
         <v>4.57</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="2">
         <v>5.98</v>
       </c>
     </row>
@@ -1916,7 +1937,7 @@
       <c r="G50" s="9">
         <v>4.5</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="2">
         <v>5.56</v>
       </c>
     </row>
@@ -1942,7 +1963,7 @@
       <c r="G51" s="9">
         <v>4.97</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="2">
         <v>7.3</v>
       </c>
     </row>
@@ -1968,7 +1989,7 @@
       <c r="G52" s="9">
         <v>5.09</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="2">
         <v>7.44</v>
       </c>
     </row>
@@ -1994,7 +2015,7 @@
       <c r="G53" s="9">
         <v>4.3</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="2">
         <v>4.58</v>
       </c>
     </row>
@@ -2020,7 +2041,7 @@
       <c r="G54" s="9">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="2">
         <v>4.96</v>
       </c>
     </row>
@@ -2046,7 +2067,7 @@
       <c r="G55" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="2">
         <v>4.34</v>
       </c>
     </row>
@@ -2072,7 +2093,7 @@
       <c r="G56" s="9">
         <v>3.86</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="2">
         <v>3.87</v>
       </c>
     </row>
@@ -2098,7 +2119,7 @@
       <c r="G57" s="9">
         <v>3.68</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="2">
         <v>4.28</v>
       </c>
     </row>
@@ -2124,7 +2145,7 @@
       <c r="G58" s="9">
         <v>3.34</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="2">
         <v>4.26</v>
       </c>
     </row>
@@ -2150,7 +2171,7 @@
       <c r="G59" s="9">
         <v>3.33</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="2">
         <v>4.6399999999999997</v>
       </c>
     </row>
@@ -2176,7 +2197,7 @@
       <c r="G60" s="9">
         <v>3.6</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="2">
         <v>6.01</v>
       </c>
     </row>
@@ -2202,7 +2223,7 @@
       <c r="G61" s="9">
         <v>3.29</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="2">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -2228,7 +2249,7 @@
       <c r="G62" s="9">
         <v>3.34</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="2">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -2254,7 +2275,7 @@
       <c r="G63" s="9">
         <v>3.68</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="2">
         <v>3.36</v>
       </c>
     </row>
@@ -2280,7 +2301,7 @@
       <c r="G64" s="9">
         <v>3.31</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="2">
         <v>1.46</v>
       </c>
     </row>
@@ -2306,7 +2327,7 @@
       <c r="G65" s="9">
         <v>3.12</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="2">
         <v>1.01</v>
       </c>
     </row>
@@ -2332,7 +2353,7 @@
       <c r="G66" s="9">
         <v>2.79</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -2358,7 +2379,7 @@
       <c r="G67" s="9">
         <v>2.65</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -2384,7 +2405,7 @@
       <c r="G68" s="9">
         <v>2.68</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="2">
         <v>0.88</v>
       </c>
     </row>
@@ -2410,7 +2431,7 @@
       <c r="G69" s="9">
         <v>2.56</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="2">
         <v>0.88</v>
       </c>
     </row>
@@ -2436,7 +2457,7 @@
       <c r="G70" s="9">
         <v>2.36</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -2462,7 +2483,7 @@
       <c r="G71" s="9">
         <v>2.21</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -2488,7 +2509,7 @@
       <c r="G72" s="9">
         <v>1.95</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="2">
         <v>0.53</v>
       </c>
     </row>
@@ -2514,7 +2535,7 @@
       <c r="G73" s="9">
         <v>2.46</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="2">
         <v>0.63</v>
       </c>
     </row>
@@ -2540,7 +2561,7 @@
       <c r="G74" s="9">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="2">
         <v>0.69</v>
       </c>
     </row>
@@ -2566,7 +2587,7 @@
       <c r="G75" s="9">
         <v>2.48</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="2">
         <v>0.72</v>
       </c>
     </row>
@@ -2592,7 +2613,7 @@
       <c r="G76" s="9">
         <v>2.37</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -2618,7 +2639,7 @@
       <c r="G77" s="9">
         <v>2.19</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="2">
         <v>0.76</v>
       </c>
     </row>
@@ -2644,7 +2665,7 @@
       <c r="G78" s="9">
         <v>2.25</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="2">
         <v>1.01</v>
       </c>
     </row>
@@ -2670,7 +2691,7 @@
       <c r="G79" s="9">
         <v>2.44</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="2">
         <v>1.35</v>
       </c>
     </row>
@@ -2696,7 +2717,7 @@
       <c r="G80" s="9">
         <v>2.31</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -2722,7 +2743,7 @@
       <c r="G81" s="9">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="2">
         <v>1.32</v>
       </c>
     </row>
@@ -2748,7 +2769,7 @@
       <c r="G82" s="9">
         <v>2.57</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="2">
         <v>2.12</v>
       </c>
     </row>
@@ -2774,7 +2795,7 @@
       <c r="G83" s="9">
         <v>2.68</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="2">
         <v>2.39</v>
       </c>
     </row>
@@ -2800,7 +2821,7 @@
       <c r="G84" s="9">
         <v>2.83</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="2">
         <v>2.58</v>
       </c>
     </row>
@@ -2826,7 +2847,7 @@
       <c r="G85" s="9">
         <v>2.48</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="2">
         <v>1.8</v>
       </c>
     </row>
@@ -2852,7 +2873,7 @@
       <c r="G86" s="9">
         <v>2.61</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="2">
         <v>1.81</v>
       </c>
     </row>
@@ -2878,7 +2899,7 @@
       <c r="G87" s="9">
         <v>2.9</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="2">
         <v>3.21</v>
       </c>
     </row>
@@ -2904,7 +2925,7 @@
       <c r="G88" s="9">
         <v>3.46</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="2">
         <v>3.86</v>
       </c>
     </row>
@@ -2930,7 +2951,7 @@
       <c r="G89" s="9">
         <v>3.09</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="2">
         <v>2.54</v>
       </c>
     </row>
@@ -2956,7 +2977,7 @@
       <c r="G90" s="9">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="2">
         <v>3.74</v>
       </c>
     </row>
@@ -2982,7 +3003,7 @@
       <c r="G91" s="9">
         <v>4.72</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="2">
         <v>4.28</v>
       </c>
     </row>
@@ -3008,7 +3029,7 @@
       <c r="G92" s="9">
         <v>3.84</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="2">
         <v>2.91</v>
       </c>
     </row>
@@ -3034,8 +3055,8 @@
       <c r="G93" s="9">
         <v>4.08</v>
       </c>
-      <c r="H93" s="5">
-        <v>3.2795454545454539</v>
+      <c r="H93" s="2">
+        <v>3.39</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -3062,8 +3083,8 @@
       <c r="G94" s="9">
         <v>3.83</v>
       </c>
-      <c r="H94" s="5">
-        <v>3.038636363636364</v>
+      <c r="H94" s="2">
+        <v>3.5</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
@@ -3090,8 +3111,8 @@
       <c r="G95" s="9">
         <v>4.17</v>
       </c>
-      <c r="H95" s="5">
-        <v>3.792272727272727</v>
+      <c r="H95" s="2">
+        <v>4.09</v>
       </c>
       <c r="I95"/>
       <c r="J95"/>
@@ -3118,8 +3139,8 @@
       <c r="G96" s="9">
         <v>4.1900000000000004</v>
       </c>
-      <c r="H96" s="5">
-        <v>3.9420000000000002</v>
+      <c r="H96" s="2">
+        <v>4.46</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -3146,8 +3167,8 @@
       <c r="G97" s="9">
         <v>4.6100000000000003</v>
       </c>
-      <c r="H97" s="5">
-        <v>4.8766666666666669</v>
+      <c r="H97" s="2">
+        <v>5.44</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
@@ -3174,8 +3195,8 @@
       <c r="G98" s="9">
         <v>4.58</v>
       </c>
-      <c r="H98" s="5">
-        <v>4.7461904761904758</v>
+      <c r="H98" s="2">
+        <v>5.55</v>
       </c>
       <c r="I98"/>
       <c r="J98"/>
@@ -3202,8 +3223,8 @@
       <c r="G99" s="9">
         <v>5.53</v>
       </c>
-      <c r="H99" s="5">
-        <v>5.4286363636363637</v>
+      <c r="H99" s="2">
+        <v>6.17</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -3230,8 +3251,8 @@
       <c r="G100" s="9">
         <v>6.04</v>
       </c>
-      <c r="H100" s="5">
-        <v>6.3395454545454548</v>
+      <c r="H100" s="2">
+        <v>8.0500000000000007</v>
       </c>
       <c r="I100"/>
       <c r="J100"/>
@@ -3258,8 +3279,8 @@
       <c r="G101" s="9">
         <v>7.79</v>
       </c>
-      <c r="H101" s="5">
-        <v>8.1028571428571432</v>
+      <c r="H101" s="2">
+        <v>9.11</v>
       </c>
       <c r="I101"/>
       <c r="J101"/>
@@ -3286,8 +3307,8 @@
       <c r="G102" s="9">
         <v>6.24</v>
       </c>
-      <c r="H102" s="5">
-        <v>4.5674999999999999</v>
+      <c r="H102" s="2">
+        <v>5.66</v>
       </c>
       <c r="I102"/>
       <c r="J102"/>
@@ -3314,8 +3335,8 @@
       <c r="G103" s="9">
         <v>5.95</v>
       </c>
-      <c r="H103" s="5">
-        <v>4.2780952380952382</v>
+      <c r="H103" s="2">
+        <v>4.62</v>
       </c>
       <c r="I103"/>
       <c r="J103"/>
@@ -3342,8 +3363,8 @@
       <c r="G104" s="9">
         <v>6.46</v>
       </c>
-      <c r="H104" s="5">
-        <v>5.8913636363636366</v>
+      <c r="H104" s="2">
+        <v>7.93</v>
       </c>
       <c r="I104"/>
       <c r="J104"/>
@@ -3370,8 +3391,8 @@
       <c r="G105" s="9">
         <v>6.99</v>
       </c>
-      <c r="H105" s="5">
-        <v>7.4209090909090909</v>
+      <c r="H105" s="2">
+        <v>11.03</v>
       </c>
       <c r="I105"/>
       <c r="J105"/>
@@ -3398,8 +3419,8 @@
       <c r="G106" s="9">
         <v>7.5</v>
       </c>
-      <c r="H106" s="5">
-        <v>6.8322727272727271</v>
+      <c r="H106" s="2">
+        <v>7.24</v>
       </c>
       <c r="I106"/>
       <c r="J106"/>
@@ -3426,8 +3447,8 @@
       <c r="G107" s="9">
         <v>7.74</v>
       </c>
-      <c r="H107" s="5">
-        <v>5.805714285714286</v>
+      <c r="H107" s="2">
+        <v>5.7</v>
       </c>
       <c r="I107"/>
       <c r="J107"/>
@@ -3454,8 +3475,8 @@
       <c r="G108" s="9">
         <v>7.21</v>
       </c>
-      <c r="H108" s="5">
-        <v>5.2909523809523806</v>
+      <c r="H108" s="2">
+        <v>5.28</v>
       </c>
       <c r="I108"/>
       <c r="J108"/>
@@ -3482,8 +3503,8 @@
       <c r="G109" s="9">
         <v>7.96</v>
       </c>
-      <c r="H109" s="5">
-        <v>7.2833333333333332</v>
+      <c r="H109" s="2">
+        <v>7.78</v>
       </c>
       <c r="I109"/>
       <c r="J109"/>
@@ -3510,8 +3531,8 @@
       <c r="G110" s="9">
         <v>9.1</v>
       </c>
-      <c r="H110" s="5">
-        <v>10.414545454545451</v>
+      <c r="H110" s="2">
+        <v>10.88</v>
       </c>
       <c r="I110"/>
       <c r="J110"/>
@@ -3538,8 +3559,8 @@
       <c r="G111" s="9">
         <v>10.8</v>
       </c>
-      <c r="H111" s="5">
-        <v>12.05727272727273</v>
+      <c r="H111" s="2">
+        <v>11.37</v>
       </c>
       <c r="I111"/>
       <c r="J111"/>
@@ -3566,8 +3587,8 @@
       <c r="G112" s="9">
         <v>12.57</v>
       </c>
-      <c r="H112" s="5">
-        <v>14.084761904761899</v>
+      <c r="H112" s="2">
+        <v>17.63</v>
       </c>
       <c r="I112"/>
       <c r="J112"/>
@@ -3594,8 +3615,8 @@
       <c r="G113" s="9">
         <v>14.59</v>
       </c>
-      <c r="H113" s="5">
-        <v>14.318</v>
+      <c r="H113" s="2">
+        <v>14.6</v>
       </c>
       <c r="I113"/>
       <c r="J113"/>
@@ -3622,8 +3643,8 @@
       <c r="G114" s="9">
         <v>10.46</v>
       </c>
-      <c r="H114" s="5">
-        <v>8.6219047619047622</v>
+      <c r="H114" s="2">
+        <v>9.3699999999999992</v>
       </c>
       <c r="I114"/>
       <c r="J114"/>
@@ -3650,8 +3671,8 @@
       <c r="G115" s="9">
         <v>11.67</v>
       </c>
-      <c r="H115" s="5">
-        <v>9.9014285714285712</v>
+      <c r="H115" s="2">
+        <v>11.11</v>
       </c>
       <c r="I115"/>
       <c r="J115"/>
@@ -3678,8 +3699,8 @@
       <c r="G116" s="9">
         <v>11.38</v>
       </c>
-      <c r="H116" s="5">
-        <v>9.024285714285714</v>
+      <c r="H116" s="2">
+        <v>8.35</v>
       </c>
       <c r="I116"/>
       <c r="J116"/>
@@ -3706,8 +3727,8 @@
       <c r="G117" s="9">
         <v>9.19</v>
       </c>
-      <c r="H117" s="5">
-        <v>7.7285714285714286</v>
+      <c r="H117" s="2">
+        <v>7.31</v>
       </c>
       <c r="I117"/>
       <c r="J117"/>
@@ -3734,8 +3755,8 @@
       <c r="G118" s="9">
         <v>7.08</v>
       </c>
-      <c r="H118" s="5">
-        <v>5.7785000000000002</v>
+      <c r="H118" s="2">
+        <v>6.25</v>
       </c>
       <c r="I118"/>
       <c r="J118"/>
@@ -3762,8 +3783,8 @@
       <c r="G119" s="9">
         <v>8.67</v>
       </c>
-      <c r="H119" s="5">
-        <v>6.9889473684210524</v>
+      <c r="H119" s="2">
+        <v>7.63</v>
       </c>
       <c r="I119"/>
       <c r="J119"/>
@@ -3790,8 +3811,8 @@
       <c r="G120" s="9">
         <v>9.09</v>
       </c>
-      <c r="H120" s="5">
-        <v>9.0474999999999994</v>
+      <c r="H120" s="2">
+        <v>9.2899999999999991</v>
       </c>
       <c r="I120"/>
       <c r="J120"/>
@@ -3818,8 +3839,8 @@
       <c r="G121" s="9">
         <v>8.2100000000000009</v>
       </c>
-      <c r="H121" s="5">
-        <v>7.9209523809523814</v>
+      <c r="H121" s="2">
+        <v>8.43</v>
       </c>
       <c r="I121"/>
       <c r="J121"/>
@@ -3846,8 +3867,8 @@
       <c r="G122" s="9">
         <v>8.09</v>
       </c>
-      <c r="H122" s="5">
-        <v>6.6442857142857141</v>
+      <c r="H122" s="2">
+        <v>6.92</v>
       </c>
       <c r="I122"/>
       <c r="J122"/>
@@ -3874,8 +3895,8 @@
       <c r="G123" s="9">
         <v>7.03</v>
       </c>
-      <c r="H123" s="5">
-        <v>4.1509523809523809</v>
+      <c r="H123" s="2">
+        <v>3.91</v>
       </c>
       <c r="I123"/>
       <c r="J123"/>
@@ -3902,8 +3923,8 @@
       <c r="G124" s="9">
         <v>6.6</v>
       </c>
-      <c r="H124" s="5">
-        <v>3.4963157894736838</v>
+      <c r="H124" s="2">
+        <v>3.44</v>
       </c>
       <c r="I124"/>
       <c r="J124"/>
@@ -3930,8 +3951,8 @@
       <c r="G125" s="9">
         <v>5.75</v>
       </c>
-      <c r="H125" s="5">
-        <v>3.5425</v>
+      <c r="H125" s="2">
+        <v>4.3499999999999996</v>
       </c>
       <c r="I125"/>
       <c r="J125"/>
@@ -3958,8 +3979,8 @@
       <c r="G126" s="9">
         <v>7.78</v>
       </c>
-      <c r="H126" s="5">
-        <v>7.0505000000000004</v>
+      <c r="H126" s="2">
+        <v>6.45</v>
       </c>
       <c r="I126"/>
       <c r="J126"/>
@@ -3986,8 +4007,8 @@
       <c r="G127" s="9">
         <v>5.65</v>
       </c>
-      <c r="H127" s="5">
-        <v>5.0876190476190466</v>
+      <c r="H127" s="2">
+        <v>5.68</v>
       </c>
       <c r="I127"/>
       <c r="J127"/>
@@ -4014,8 +4035,8 @@
       <c r="G128" s="9">
         <v>6.58</v>
       </c>
-      <c r="H128" s="5">
-        <v>5.6123809523809527</v>
+      <c r="H128" s="2">
+        <v>5.78</v>
       </c>
       <c r="I128"/>
       <c r="J128"/>
@@ -4042,8 +4063,8 @@
       <c r="G129" s="9">
         <v>5.54</v>
       </c>
-      <c r="H129" s="5">
-        <v>5.2445000000000004</v>
+      <c r="H129" s="2">
+        <v>5.68</v>
       </c>
       <c r="I129"/>
       <c r="J129"/>
@@ -4070,8 +4091,8 @@
       <c r="G130" s="9">
         <v>4.72</v>
       </c>
-      <c r="H130" s="5">
-        <v>4.5142105263157886</v>
+      <c r="H130" s="2">
+        <v>5.31</v>
       </c>
       <c r="I130"/>
       <c r="J130"/>
@@ -4098,8 +4119,8 @@
       <c r="G131" s="9">
         <v>6.66</v>
       </c>
-      <c r="H131" s="5">
-        <v>6.1215000000000002</v>
+      <c r="H131" s="2">
+        <v>6.61</v>
       </c>
       <c r="I131"/>
       <c r="J131"/>
@@ -4126,8 +4147,8 @@
       <c r="G132" s="9">
         <v>5.16</v>
       </c>
-      <c r="H132" s="5">
-        <v>4.8147619047619052</v>
+      <c r="H132" s="2">
+        <v>4.63</v>
       </c>
       <c r="I132"/>
       <c r="J132"/>
@@ -4154,8 +4175,8 @@
       <c r="G133" s="9">
         <v>5.04</v>
       </c>
-      <c r="H133" s="5">
-        <v>2.1585714285714288</v>
+      <c r="H133" s="2">
+        <v>1.85</v>
       </c>
       <c r="I133"/>
       <c r="J133"/>
@@ -4182,8 +4203,8 @@
       <c r="G134" s="9">
         <v>4.05</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.3642857142857141</v>
+      <c r="H134" s="2">
+        <v>1.18</v>
       </c>
       <c r="I134"/>
       <c r="J134"/>
@@ -4210,8 +4231,8 @@
       <c r="G135" s="9">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H135" s="5">
-        <v>1.2395</v>
+      <c r="H135" s="2">
+        <v>1.49</v>
       </c>
       <c r="I135"/>
       <c r="J135"/>
@@ -4238,8 +4259,8 @@
       <c r="G136" s="9">
         <v>4.22</v>
       </c>
-      <c r="H136" s="5">
-        <v>2.8605</v>
+      <c r="H136" s="2">
+        <v>3.41</v>
       </c>
       <c r="I136"/>
       <c r="J136"/>
@@ -4266,8 +4287,8 @@
       <c r="G137" s="10">
         <v>4.42</v>
       </c>
-      <c r="H137" s="5">
-        <v>4.4450000000000003</v>
+      <c r="H137" s="2">
+        <v>5.32</v>
       </c>
       <c r="I137"/>
       <c r="J137"/>
@@ -4294,8 +4315,8 @@
       <c r="G138" s="10">
         <v>4.76</v>
       </c>
-      <c r="H138" s="5">
-        <v>5.0571428571428569</v>
+      <c r="H138" s="2">
+        <v>5.34</v>
       </c>
       <c r="I138"/>
       <c r="J138"/>
@@ -4322,8 +4343,9 @@
       <c r="G139" s="10">
         <v>3.74</v>
       </c>
-      <c r="H139" s="5">
-        <v>2.7114285714285709</v>
+      <c r="H139" s="2">
+        <f>(3.71+3.13)/2</f>
+        <v>3.42</v>
       </c>
       <c r="I139"/>
       <c r="J139"/>
@@ -4350,8 +4372,9 @@
       <c r="G140" s="10">
         <v>2.52</v>
       </c>
-      <c r="H140" s="5">
-        <v>0.44450000000000001</v>
+      <c r="H140" s="2">
+        <f>(1.53+0.5)/2</f>
+        <v>1.0150000000000001</v>
       </c>
       <c r="I140"/>
       <c r="J140"/>
@@ -4378,8 +4401,9 @@
       <c r="G141" s="10">
         <v>3.73</v>
       </c>
-      <c r="H141" s="5">
-        <v>0.34578947368421048</v>
+      <c r="H141" s="2">
+        <f>(0.29+0.62)/2</f>
+        <v>0.45499999999999996</v>
       </c>
       <c r="I141"/>
       <c r="J141"/>
@@ -4406,8 +4430,9 @@
       <c r="G142" s="10">
         <v>3.39</v>
       </c>
-      <c r="H142" s="5">
-        <v>0.27350000000000002</v>
+      <c r="H142" s="2">
+        <f>(0.38+0.35)/2</f>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I142"/>
       <c r="J142"/>
@@ -4434,8 +4459,8 @@
       <c r="G143" s="10">
         <v>1.97</v>
       </c>
-      <c r="H143" s="5">
-        <v>0.115</v>
+      <c r="H143" s="10">
+        <v>0.2</v>
       </c>
       <c r="I143"/>
       <c r="J143"/>
@@ -4462,8 +4487,8 @@
       <c r="G144" s="10">
         <v>1.91</v>
       </c>
-      <c r="H144" s="5">
-        <v>0.14523809523809519</v>
+      <c r="H144" s="10">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I144"/>
       <c r="J144"/>
@@ -4490,8 +4515,8 @@
       <c r="G145" s="10">
         <v>2.86</v>
       </c>
-      <c r="H145" s="5">
-        <v>0.11619047619047621</v>
+      <c r="H145" s="10">
+        <v>0.12</v>
       </c>
       <c r="I145"/>
       <c r="J145"/>
@@ -4518,8 +4543,8 @@
       <c r="G146" s="10">
         <v>1.88</v>
       </c>
-      <c r="H146" s="5">
-        <v>0.19550000000000001</v>
+      <c r="H146" s="9">
+        <v>0.12</v>
       </c>
       <c r="I146"/>
       <c r="J146"/>
@@ -4546,8 +4571,8 @@
       <c r="G147" s="10">
         <v>2.09</v>
       </c>
-      <c r="H147" s="5">
-        <v>0.54315789473684206</v>
+      <c r="H147" s="9">
+        <v>0.125</v>
       </c>
       <c r="I147"/>
       <c r="J147"/>
@@ -4574,8 +4599,8 @@
       <c r="G148" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H148" s="5">
-        <v>0.82550000000000001</v>
+      <c r="H148" s="9">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I148"/>
       <c r="J148"/>
@@ -4602,8 +4627,8 @@
       <c r="G149" s="10">
         <v>2.58</v>
       </c>
-      <c r="H149" s="5">
-        <v>1.8028571428571429</v>
+      <c r="H149" s="9">
+        <v>0.20499999999999999</v>
       </c>
       <c r="I149"/>
       <c r="J149"/>
@@ -4630,8 +4655,8 @@
       <c r="G150" s="10">
         <v>2.71</v>
       </c>
-      <c r="H150" s="5">
-        <v>2.5795238095238089</v>
+      <c r="H150" s="9">
+        <v>0.38</v>
       </c>
       <c r="I150"/>
       <c r="J150"/>
@@ -4658,8 +4683,9 @@
       <c r="G151" s="9">
         <v>1.76</v>
       </c>
-      <c r="H151" s="5">
-        <v>1.5328571428571429</v>
+      <c r="H151" s="3">
+        <f>(0.34+0.15)/2</f>
+        <v>0.245</v>
       </c>
       <c r="I151"/>
       <c r="J151"/>
@@ -4686,8 +4712,8 @@
       <c r="G152" s="9">
         <v>1.08</v>
       </c>
-      <c r="H152" s="5">
-        <v>0.1005263157894737</v>
+      <c r="H152" s="3">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I152"/>
       <c r="J152"/>
@@ -4714,8 +4740,9 @@
       <c r="G153" s="9">
         <v>1.76</v>
       </c>
-      <c r="H153" s="5">
-        <v>0.54949999999999999</v>
+      <c r="H153" s="3">
+        <f>(0.09+0.22)/2</f>
+        <v>0.155</v>
       </c>
       <c r="I153"/>
       <c r="J153"/>
@@ -4742,8 +4769,9 @@
       <c r="G154" s="9">
         <v>3.53</v>
       </c>
-      <c r="H154" s="5">
-        <v>4.694</v>
+      <c r="H154" s="3">
+        <f>(0.81+1.3)/2</f>
+        <v>1.0550000000000002</v>
       </c>
       <c r="I154"/>
       <c r="J154"/>
@@ -4764,8 +4792,8 @@
       <c r="G155" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H155" s="9">
-        <v>4.79</v>
+      <c r="H155" s="3">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
@@ -4776,9 +4804,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D1BB09-CD8F-4AED-ADCB-36F73DDD8290}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4793,7 +4823,7 @@
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4813,7 +4843,7 @@
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4831,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4839,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4847,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4870,7 +4900,7 @@
     </row>
     <row r="15" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -4894,7 +4924,7 @@
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -4913,52 +4943,73 @@
         <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data7.xlsx
+++ b/data7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansa1\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansa1\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB060ADB-4FEC-4342-AEFC-DEAFA0B6F8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F53EF13-A735-47E9-844D-4C392B15BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -622,9 +622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4755,7 +4755,7 @@
         <v>70.3</v>
       </c>
       <c r="C154" s="5">
-        <v>187.81</v>
+        <v>192.43</v>
       </c>
       <c r="D154" s="5">
         <v>3960.66</v>
@@ -4806,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D1BB09-CD8F-4AED-ADCB-36F73DDD8290}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data7.xlsx
+++ b/data7.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansa1\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F53EF13-A735-47E9-844D-4C392B15BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C5C69-31D8-4D5E-81C6-C32554563FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="9.9999999999994451E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -121,31 +110,13 @@
     <t>1871-1912</t>
   </si>
   <si>
-    <t>1913-2024</t>
-  </si>
-  <si>
     <t>January</t>
-  </si>
-  <si>
-    <t>1954-2024</t>
-  </si>
-  <si>
-    <t>1919-2024</t>
   </si>
   <si>
     <t>Dividends per share of the Standard &amp; Poor Composite Index, annual 1871-2023</t>
   </si>
   <si>
     <t>Earnings per share of the Standard &amp; Poor Composite Index, annual 1871-2023</t>
-  </si>
-  <si>
-    <t>Average monthly close, Standard &amp; Poor Composite Index, January 1871-January 2024</t>
-  </si>
-  <si>
-    <t>Stock and bond markets 1871-2024 in the United States of America</t>
-  </si>
-  <si>
-    <t>1957-2024: Standard &amp; Poor 500</t>
   </si>
   <si>
     <t>CPI for all urban consumers: All items in US City Average, FRED series CPIAUCNS</t>
@@ -175,10 +146,28 @@
     <t>2012- Jan 2021</t>
   </si>
   <si>
-    <t>Jul 2021-2024</t>
+    <t>1919-2025</t>
   </si>
   <si>
-    <t>Collected Feb 26, 2024</t>
+    <t>Average monthly close, Standard &amp; Poor Composite Index, January 1871-January 2025</t>
+  </si>
+  <si>
+    <t>Stock and bond markets 1871-2025 in the United States of America</t>
+  </si>
+  <si>
+    <t>1954-2025</t>
+  </si>
+  <si>
+    <t>Jul 2021-2025</t>
+  </si>
+  <si>
+    <t>1913-2025</t>
+  </si>
+  <si>
+    <t>Collected January 22, 2026</t>
+  </si>
+  <si>
+    <t>1957-2025: Standard &amp; Poor 500</t>
   </si>
 </sst>
 </file>
@@ -334,9 +323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,9 +363,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,9 +398,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,9 +450,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4780,6 +4803,12 @@
       <c r="A155" s="2">
         <v>2024</v>
       </c>
+      <c r="B155" s="5">
+        <v>74.83</v>
+      </c>
+      <c r="C155" s="5">
+        <v>210.17</v>
+      </c>
       <c r="D155" s="5">
         <v>4804.49</v>
       </c>
@@ -4793,7 +4822,30 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="H155" s="3">
-        <v>1.49</v>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B156" s="5">
+        <v>78.92</v>
+      </c>
+      <c r="D156" s="5">
+        <v>5979.52</v>
+      </c>
+      <c r="E156" s="3">
+        <v>317.67099999999999</v>
+      </c>
+      <c r="F156" s="2">
+        <v>5.46</v>
+      </c>
+      <c r="G156" s="9">
+        <v>4.63</v>
+      </c>
+      <c r="H156" s="15">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>
@@ -4806,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D1BB09-CD8F-4AED-ADCB-36F73DDD8290}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,7 +4875,7 @@
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4843,7 +4895,7 @@
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4861,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4869,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4877,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4900,7 +4952,7 @@
     </row>
     <row r="15" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -4924,7 +4976,7 @@
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -4943,39 +4995,39 @@
         <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -4983,15 +5035,15 @@
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -5008,7 +5060,7 @@
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
